--- a/data/trans_dic/P69$problemSueño-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69$problemSueño-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2500511049014684</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1773737263775808</v>
+        <v>0.1773737263775809</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1209133018621083</v>
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05399812488248411</v>
+        <v>0.0531345652633047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2070131639292269</v>
+        <v>0.1935959064138182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06346169614981084</v>
+        <v>0.06449129592256579</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07720946950704945</v>
+        <v>0.07852015994637093</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05272790784463514</v>
+        <v>0.05094339027791576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1707424167021256</v>
+        <v>0.1741643034778117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08271137102212403</v>
+        <v>0.09442665135741797</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2945585463378512</v>
+        <v>0.2719321764780566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8209172143004867</v>
+        <v>0.812406027945089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.50223411842843</v>
+        <v>0.4954572285514601</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.2970706593617601</v>
+        <v>0.3471521453999054</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5787180014925287</v>
+        <v>0.5803719969727209</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5773850447189321</v>
+        <v>0.5676677416557964</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5487421675670497</v>
+        <v>0.5502405404400125</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2231773760991271</v>
+        <v>0.2379193589887452</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5952085600357955</v>
+        <v>0.6058741212437559</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4144353060536375</v>
+        <v>0.4224183014341884</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3875578712464579</v>
+        <v>0.3847914608871871</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.2348855804846101</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2610903324138033</v>
+        <v>0.2610903324138032</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2052210193762528</v>
+        <v>0.2015698002449721</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1441973808857732</v>
+        <v>0.1462252952019371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1082926593842513</v>
+        <v>0.1146154132728139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1383987503365252</v>
+        <v>0.1335931441402733</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1516958850773721</v>
+        <v>0.1492062069627218</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1891334227327877</v>
+        <v>0.2006848703062002</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1865215513248792</v>
+        <v>0.1899286720961161</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1453841096310389</v>
+        <v>0.1521396484716889</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.201456041448801</v>
+        <v>0.1964053056178885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.192408699876297</v>
+        <v>0.1942083065650398</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1659971440703811</v>
+        <v>0.1630933205828936</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1705153999425336</v>
+        <v>0.1638369359523228</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3618602653869231</v>
+        <v>0.3561802608652951</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3354292670284859</v>
+        <v>0.3374097310469333</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.296736071813526</v>
+        <v>0.2928303576976607</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4584450294743224</v>
+        <v>0.4326888238542845</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3480924883799563</v>
+        <v>0.3465598162965507</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4201524953111025</v>
+        <v>0.4303494838052192</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4596585186677536</v>
+        <v>0.4401419371327203</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3881529781408067</v>
+        <v>0.4043802433423875</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3304749557547749</v>
+        <v>0.327420260181176</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.34507778205623</v>
+        <v>0.3479571392424072</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3139783330941901</v>
+        <v>0.3207705990463475</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.372346104627807</v>
+        <v>0.3754493156707626</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.2809278273444563</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2598826059704564</v>
+        <v>0.2598826059704563</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.215897328015535</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1453130263459377</v>
+        <v>0.1514837578923571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1521713800895861</v>
+        <v>0.1436738856833529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1621788665069893</v>
+        <v>0.1566129780916437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1252366801282618</v>
+        <v>0.1179549608091362</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1265020585631431</v>
+        <v>0.118117739480674</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2500636155276943</v>
+        <v>0.252791263487806</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1880847894178146</v>
+        <v>0.1877927641567518</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1833155492165027</v>
+        <v>0.1789517906939587</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1609276492203436</v>
+        <v>0.1580974929910039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2144940362143733</v>
+        <v>0.2154558518785586</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1921372739043813</v>
+        <v>0.1922057614762069</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1715759628630192</v>
+        <v>0.1703986739789922</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.293348343866104</v>
+        <v>0.3007516799754478</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3122472464837438</v>
+        <v>0.3046578636566478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3217255124641268</v>
+        <v>0.3239346847115885</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2891498215212671</v>
+        <v>0.2922621788496263</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3255799784161099</v>
+        <v>0.3105874109868438</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4833186263484526</v>
+        <v>0.4835491918353532</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4069461124073015</v>
+        <v>0.404291670582152</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3486419231794851</v>
+        <v>0.3519634567677462</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2756583300404413</v>
+        <v>0.2784398224829725</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3586327285815818</v>
+        <v>0.3590586961763569</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3173483691678315</v>
+        <v>0.3321588565930094</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2921565568975387</v>
+        <v>0.2908708446348009</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.2866007606089805</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2405868844483881</v>
+        <v>0.2405868844483882</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1547018175654413</v>
+        <v>0.1548941847541773</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2010658564862061</v>
+        <v>0.2018720286733282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1659236249716942</v>
+        <v>0.1642107014027379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1378876030523742</v>
+        <v>0.1414453130417402</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.141132257115773</v>
+        <v>0.1545364228573003</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08093326064464795</v>
+        <v>0.07811983761095131</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2236023520019491</v>
+        <v>0.2276368368828146</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.211253157658235</v>
+        <v>0.2075224795499855</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1765421552265393</v>
+        <v>0.1792031090058224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1924984639166707</v>
+        <v>0.1861263068962432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2101969782025456</v>
+        <v>0.2098105687096203</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1905961716760797</v>
+        <v>0.1896637020583866</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3335779324196023</v>
+        <v>0.3345750580669512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4120878219495436</v>
+        <v>0.400457455867714</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3650995062326676</v>
+        <v>0.3656070343116039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2963463904836763</v>
+        <v>0.3095752573110507</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4280649192945478</v>
+        <v>0.4433622038519308</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3352302000618027</v>
+        <v>0.3349245461582318</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5044567037822049</v>
+        <v>0.4848869610315293</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3371241878889039</v>
+        <v>0.3382288821411626</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3320962397844783</v>
+        <v>0.3300468608484319</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3578132592141398</v>
+        <v>0.350295102455157</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3714999667068284</v>
+        <v>0.3686540745349544</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2966524382982928</v>
+        <v>0.2984036913583935</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08033141603611664</v>
+        <v>0.06590585198776119</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1419719399915473</v>
+        <v>0.1448199003539849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1989496516335881</v>
+        <v>0.2034180352476652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09242923008255044</v>
+        <v>0.08676347285659014</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1293388427376424</v>
+        <v>0.1296753030129092</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2606706379604113</v>
+        <v>0.253412865119086</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2799657107359063</v>
+        <v>0.2837726872473417</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08385233399551079</v>
+        <v>0.08079860440904657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1721008333409513</v>
+        <v>0.1729455287799184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2641855163905072</v>
+        <v>0.2661655448579266</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1995849355809221</v>
+        <v>0.1993380166451714</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2966040563483797</v>
+        <v>0.289945784212668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4076917383837637</v>
+        <v>0.4035400830921029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4831042718661978</v>
+        <v>0.5153528152536148</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2733918348397785</v>
+        <v>0.2604334075306725</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4318544909811648</v>
+        <v>0.4295716707162357</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5307071960234656</v>
+        <v>0.5361553212420476</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6548270087771565</v>
+        <v>0.6415054926389755</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4707841391468596</v>
+        <v>0.4711759704653473</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2834528284479248</v>
+        <v>0.2665152509803055</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3968158538351278</v>
+        <v>0.3977802207094866</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5001776506760169</v>
+        <v>0.5073726915898932</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3333713836536166</v>
+        <v>0.3258422673147509</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.2732659854733177</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2389536729430189</v>
+        <v>0.238953672943019</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1946727549170868</v>
+        <v>0.1941660720578201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1568703691854462</v>
+        <v>0.1581318524584129</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.239574652690845</v>
+        <v>0.2431408857475938</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2355052811714541</v>
+        <v>0.2355155119513595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2332539957566478</v>
+        <v>0.237417929821642</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2083285225840051</v>
+        <v>0.2077348694847579</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.294735158591546</v>
+        <v>0.2971918185816532</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2533460967370677</v>
+        <v>0.2574734161691136</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3193804785426804</v>
+        <v>0.3266112253228539</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3109555012018569</v>
+        <v>0.3145309897047655</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3092089112427381</v>
+        <v>0.3176106768921249</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2733335754438057</v>
+        <v>0.2706334494887445</v>
       </c>
     </row>
     <row r="22">
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2493</v>
+        <v>2453</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2138</v>
+        <v>1999</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3482</v>
+        <v>3364</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3480</v>
+        <v>3550</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2382</v>
+        <v>2719</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -1775,38 +1775,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13600</v>
+        <v>12556</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8478</v>
+        <v>8390</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8614</v>
+        <v>8498</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5900</v>
+        <v>6894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5820</v>
+        <v>5836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6722</v>
+        <v>6609</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8724</v>
+        <v>8748</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14737</v>
+        <v>15710</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12132</v>
+        <v>12350</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11933</v>
+        <v>12163</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>9734</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="8">
@@ -1909,40 +1909,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29201</v>
+        <v>28682</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12443</v>
+        <v>12617</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8834</v>
+        <v>9349</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9632</v>
+        <v>9297</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12026</v>
+        <v>11828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12693</v>
+        <v>13468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8634</v>
+        <v>8792</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7489</v>
+        <v>7837</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>44636</v>
+        <v>43517</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>29515</v>
+        <v>29792</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>21225</v>
+        <v>20854</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20650</v>
+        <v>19841</v>
       </c>
     </row>
     <row r="11">
@@ -1953,40 +1953,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51489</v>
+        <v>50681</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28944</v>
+        <v>29114</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24205</v>
+        <v>23887</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31905</v>
+        <v>30112</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27595</v>
+        <v>27474</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28197</v>
+        <v>28882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21278</v>
+        <v>20375</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19995</v>
+        <v>20830</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73222</v>
+        <v>72545</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>52935</v>
+        <v>53377</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>40146</v>
+        <v>41015</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>45093</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="12">
@@ -2089,40 +2089,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18314</v>
+        <v>19091</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15028</v>
+        <v>14189</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18346</v>
+        <v>17717</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13773</v>
+        <v>12972</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8860</v>
+        <v>8273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18162</v>
+        <v>18360</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13440</v>
+        <v>13419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15883</v>
+        <v>15505</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31553</v>
+        <v>30998</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36761</v>
+        <v>36926</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>35465</v>
+        <v>35478</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>33735</v>
+        <v>33503</v>
       </c>
     </row>
     <row r="15">
@@ -2133,40 +2133,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36970</v>
+        <v>37903</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30836</v>
+        <v>30086</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36395</v>
+        <v>36644</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31800</v>
+        <v>32142</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22804</v>
+        <v>21754</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35104</v>
+        <v>35121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29080</v>
+        <v>28890</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30207</v>
+        <v>30494</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54048</v>
+        <v>54594</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>61465</v>
+        <v>61538</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>58576</v>
+        <v>61310</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>57443</v>
+        <v>57190</v>
       </c>
     </row>
     <row r="16">
@@ -2269,40 +2269,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17189</v>
+        <v>17210</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17899</v>
+        <v>17971</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15170</v>
+        <v>15013</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16620</v>
+        <v>17048</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5227</v>
+        <v>5724</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3354</v>
+        <v>3238</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12546</v>
+        <v>12772</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26727</v>
+        <v>26255</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>26154</v>
+        <v>26548</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25115</v>
+        <v>24284</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31011</v>
+        <v>30954</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>47086</v>
+        <v>46855</v>
       </c>
     </row>
     <row r="19">
@@ -2313,40 +2313,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37064</v>
+        <v>37175</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36684</v>
+        <v>35649</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33380</v>
+        <v>33427</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35719</v>
+        <v>37313</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15854</v>
+        <v>16421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13894</v>
+        <v>13881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28304</v>
+        <v>27206</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42651</v>
+        <v>42791</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>49199</v>
+        <v>48895</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>46683</v>
+        <v>45702</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>54809</v>
+        <v>54389</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>73287</v>
+        <v>73719</v>
       </c>
     </row>
     <row r="20">
@@ -2449,40 +2449,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3686</v>
+        <v>3024</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5939</v>
+        <v>6058</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8922</v>
+        <v>9123</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6657</v>
+        <v>6249</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3051</v>
+        <v>3059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8028</v>
+        <v>7805</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17293</v>
+        <v>17528</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5014</v>
+        <v>4831</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11259</v>
+        <v>11315</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>19985</v>
+        <v>20134</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>26703</v>
+        <v>26670</v>
       </c>
     </row>
     <row r="23">
@@ -2493,40 +2493,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13609</v>
+        <v>13303</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17055</v>
+        <v>16882</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21666</v>
+        <v>23113</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19691</v>
+        <v>18757</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6007</v>
+        <v>5975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12519</v>
+        <v>12647</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20168</v>
+        <v>19758</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29079</v>
+        <v>29104</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16948</v>
+        <v>15935</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>25961</v>
+        <v>26024</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37836</v>
+        <v>38381</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>44602</v>
+        <v>43595</v>
       </c>
     </row>
     <row r="24">
@@ -2629,40 +2629,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>67770</v>
+        <v>67593</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>59821</v>
+        <v>60302</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>82015</v>
+        <v>83236</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>127422</v>
+        <v>127428</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>131653</v>
+        <v>134003</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>150762</v>
+        <v>150333</v>
       </c>
     </row>
     <row r="27">
@@ -2673,40 +2673,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>102604</v>
+        <v>103459</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>96612</v>
+        <v>98185</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>109335</v>
+        <v>111810</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>168246</v>
+        <v>170180</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>174523</v>
+        <v>179266</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>197805</v>
+        <v>195851</v>
       </c>
     </row>
     <row r="28">
